--- a/WorkBot/main/backend/ordering/OrderFiles/Hill & Markes/Hill & Markes_Collegetown_20250411.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Hill & Markes/Hill & Markes_Collegetown_20250411.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,12 +613,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAST150</t>
+          <t>NPP406037</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Toilet Paper (CTB)</t>
+          <t>Knife - White HW</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -628,37 +628,10 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>56.63</t>
+          <t>15.59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>56.63</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NPP406037</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Knife - White HW</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15.59</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>15.59</t>
         </is>
